--- a/tests/input_files/xml_namespace_test.xlsx
+++ b/tests/input_files/xml_namespace_test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<test:workbook xmlns:test="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<test:workbook xmlns:test="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <test:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <test:workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <test:bookViews>
     <test:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </test:bookViews>
   <test:sheets>
-    <test:sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <test:sheet xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" name="Tabelle1" sheetId="1" r:id="rId1"/>
   </test:sheets>
   <test:calcPr calcId="162913"/>
   <test:extLst>
